--- a/Code/Results/Cases/Case_2_247/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_247/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9872555759512676</v>
+        <v>1.016552413468103</v>
       </c>
       <c r="D2">
-        <v>1.007443131238884</v>
+        <v>1.022040069288516</v>
       </c>
       <c r="E2">
-        <v>0.9998318384898541</v>
+        <v>1.044490185947091</v>
       </c>
       <c r="F2">
-        <v>1.001595035305075</v>
+        <v>1.047597120381425</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037874853344372</v>
+        <v>1.026437499221819</v>
       </c>
       <c r="J2">
-        <v>1.009824269078831</v>
+        <v>1.021771571777636</v>
       </c>
       <c r="K2">
-        <v>1.018799736281967</v>
+        <v>1.024875623536912</v>
       </c>
       <c r="L2">
-        <v>1.011293516566153</v>
+        <v>1.047261089541029</v>
       </c>
       <c r="M2">
-        <v>1.013032193390216</v>
+        <v>1.050359313613245</v>
       </c>
       <c r="N2">
-        <v>1.007334502744301</v>
+        <v>1.011368696429943</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9911608539194551</v>
+        <v>1.017369570045419</v>
       </c>
       <c r="D3">
-        <v>1.010057990583429</v>
+        <v>1.022601070586336</v>
       </c>
       <c r="E3">
-        <v>1.005194907719583</v>
+        <v>1.045709343861217</v>
       </c>
       <c r="F3">
-        <v>1.007205938369277</v>
+        <v>1.048873745858206</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038507459252892</v>
+        <v>1.026506656957223</v>
       </c>
       <c r="J3">
-        <v>1.011895418101707</v>
+        <v>1.022224925962693</v>
       </c>
       <c r="K3">
-        <v>1.020563774960495</v>
+        <v>1.025243877923041</v>
       </c>
       <c r="L3">
-        <v>1.015761747468431</v>
+        <v>1.0482904320394</v>
       </c>
       <c r="M3">
-        <v>1.01774744072305</v>
+        <v>1.051446610920002</v>
       </c>
       <c r="N3">
-        <v>1.008026763549428</v>
+        <v>1.011519414690702</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9936374693073163</v>
+        <v>1.017898622646614</v>
       </c>
       <c r="D4">
-        <v>1.011717932378078</v>
+        <v>1.022964095842561</v>
       </c>
       <c r="E4">
-        <v>1.008595881814687</v>
+        <v>1.04649914248666</v>
       </c>
       <c r="F4">
-        <v>1.010763986824627</v>
+        <v>1.04970078658907</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038897320748979</v>
+        <v>1.026550015102095</v>
       </c>
       <c r="J4">
-        <v>1.013205341556225</v>
+        <v>1.022517938126707</v>
       </c>
       <c r="K4">
-        <v>1.021676959901166</v>
+        <v>1.025481480258419</v>
       </c>
       <c r="L4">
-        <v>1.018591657448245</v>
+        <v>1.048956842703994</v>
       </c>
       <c r="M4">
-        <v>1.020734212955447</v>
+        <v>1.052150590114621</v>
       </c>
       <c r="N4">
-        <v>1.008464499559945</v>
+        <v>1.011616797556645</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9946669789291503</v>
+        <v>1.018121106419786</v>
       </c>
       <c r="D5">
-        <v>1.012408304260047</v>
+        <v>1.023116714876444</v>
       </c>
       <c r="E5">
-        <v>1.010009773997673</v>
+        <v>1.046831395374309</v>
       </c>
       <c r="F5">
-        <v>1.012243156778698</v>
+        <v>1.050048709619265</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039056625730056</v>
+        <v>1.026567909172561</v>
       </c>
       <c r="J5">
-        <v>1.01374899730026</v>
+        <v>1.022641038573422</v>
       </c>
       <c r="K5">
-        <v>1.022138339768747</v>
+        <v>1.025581203770746</v>
       </c>
       <c r="L5">
-        <v>1.019767263942615</v>
+        <v>1.049237087947286</v>
       </c>
       <c r="M5">
-        <v>1.021975077478703</v>
+        <v>1.052446645339062</v>
       </c>
       <c r="N5">
-        <v>1.008646148177742</v>
+        <v>1.011657703008644</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9948391655860163</v>
+        <v>1.018158466497756</v>
       </c>
       <c r="D6">
-        <v>1.012523788591747</v>
+        <v>1.02314234042725</v>
       </c>
       <c r="E6">
-        <v>1.010246261594107</v>
+        <v>1.046887195112073</v>
       </c>
       <c r="F6">
-        <v>1.012490561334282</v>
+        <v>1.050107141237455</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039083106376838</v>
+        <v>1.026570894081555</v>
       </c>
       <c r="J6">
-        <v>1.013839872672008</v>
+        <v>1.022661702853899</v>
       </c>
       <c r="K6">
-        <v>1.022215424879153</v>
+        <v>1.025597938110434</v>
       </c>
       <c r="L6">
-        <v>1.019963844046608</v>
+        <v>1.04928414743141</v>
       </c>
       <c r="M6">
-        <v>1.022182575120359</v>
+        <v>1.052496360334465</v>
       </c>
       <c r="N6">
-        <v>1.008676510358217</v>
+        <v>1.011664569192846</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9936512709671045</v>
+        <v>1.017901595211896</v>
       </c>
       <c r="D7">
-        <v>1.011727186239328</v>
+        <v>1.022966135134882</v>
       </c>
       <c r="E7">
-        <v>1.008614835786473</v>
+        <v>1.046503581194424</v>
       </c>
       <c r="F7">
-        <v>1.010783815972461</v>
+        <v>1.049705434628789</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038899467346019</v>
+        <v>1.026550255515426</v>
       </c>
       <c r="J7">
-        <v>1.013212633292914</v>
+        <v>1.022519583323683</v>
       </c>
       <c r="K7">
-        <v>1.021683150615615</v>
+        <v>1.025482813416578</v>
       </c>
       <c r="L7">
-        <v>1.018607420550175</v>
+        <v>1.048960587015085</v>
       </c>
       <c r="M7">
-        <v>1.020750850704946</v>
+        <v>1.052154545616016</v>
       </c>
       <c r="N7">
-        <v>1.008466936005726</v>
+        <v>1.011617344272504</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9885860557329503</v>
+        <v>1.016828513007022</v>
       </c>
       <c r="D8">
-        <v>1.008333597081371</v>
+        <v>1.022229657253031</v>
       </c>
       <c r="E8">
-        <v>1.001659100816459</v>
+        <v>1.044902015679088</v>
       </c>
       <c r="F8">
-        <v>1.003506755145107</v>
+        <v>1.048028359780086</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038092721685586</v>
+        <v>1.026461159193722</v>
       </c>
       <c r="J8">
-        <v>1.010530613844825</v>
+        <v>1.021924854470386</v>
       </c>
       <c r="K8">
-        <v>1.019401855472014</v>
+        <v>1.025000217608229</v>
       </c>
       <c r="L8">
-        <v>1.0128166453311</v>
+        <v>1.047608887094199</v>
       </c>
       <c r="M8">
-        <v>1.014639433812382</v>
+        <v>1.050726683157676</v>
       </c>
       <c r="N8">
-        <v>1.007570609599893</v>
+        <v>1.011419661562277</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9792559212333819</v>
+        <v>1.014939937594953</v>
       </c>
       <c r="D9">
-        <v>1.002098501673059</v>
+        <v>1.020932109775352</v>
       </c>
       <c r="E9">
-        <v>0.9888374017799014</v>
+        <v>1.042086876261905</v>
       </c>
       <c r="F9">
-        <v>0.9900921231085485</v>
+        <v>1.045080598977255</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036518608232391</v>
+        <v>1.026293527180697</v>
       </c>
       <c r="J9">
-        <v>1.005563089758338</v>
+        <v>1.020874313726644</v>
       </c>
       <c r="K9">
-        <v>1.015157623657131</v>
+        <v>1.024144637346443</v>
       </c>
       <c r="L9">
-        <v>1.00211421837347</v>
+        <v>1.045229724885357</v>
       </c>
       <c r="M9">
-        <v>1.00334802045928</v>
+        <v>1.048213836459047</v>
       </c>
       <c r="N9">
-        <v>1.005909828048363</v>
+        <v>1.011070246775643</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9727357188500398</v>
+        <v>1.013682525836241</v>
       </c>
       <c r="D10">
-        <v>0.9977557709250192</v>
+        <v>1.020067318076599</v>
       </c>
       <c r="E10">
-        <v>0.9798584776200895</v>
+        <v>1.040214784779581</v>
       </c>
       <c r="F10">
-        <v>0.9806976693420379</v>
+        <v>1.043120387512676</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035361615821769</v>
+        <v>1.026174656491114</v>
       </c>
       <c r="J10">
-        <v>1.002074436089971</v>
+        <v>1.020172288337255</v>
       </c>
       <c r="K10">
-        <v>1.012165664191189</v>
+        <v>1.023570825079615</v>
       </c>
       <c r="L10">
-        <v>0.9946011719424818</v>
+        <v>1.043645391706557</v>
       </c>
       <c r="M10">
-        <v>0.9954244039024651</v>
+        <v>1.046540737204421</v>
       </c>
       <c r="N10">
-        <v>1.004743176992988</v>
+        <v>1.010836601628473</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9698344081994489</v>
+        <v>1.013138455780668</v>
       </c>
       <c r="D11">
-        <v>0.9958277088250663</v>
+        <v>1.019692929849544</v>
       </c>
       <c r="E11">
-        <v>0.9758555905989358</v>
+        <v>1.039405242991294</v>
       </c>
       <c r="F11">
-        <v>0.9765094909986537</v>
+        <v>1.042272758839445</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034833876994691</v>
+        <v>1.026121503220424</v>
       </c>
       <c r="J11">
-        <v>1.000518277894219</v>
+        <v>1.01986791929926</v>
       </c>
       <c r="K11">
-        <v>1.010828739726559</v>
+        <v>1.023321558184087</v>
       </c>
       <c r="L11">
-        <v>0.9912476657827174</v>
+        <v>1.042959768479899</v>
       </c>
       <c r="M11">
-        <v>0.9918884298077295</v>
+        <v>1.045816762947645</v>
       </c>
       <c r="N11">
-        <v>1.004222738165357</v>
+        <v>1.010735268183661</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9687443833300947</v>
+        <v>1.01293642478953</v>
       </c>
       <c r="D12">
-        <v>0.995104063051908</v>
+        <v>1.019553877790871</v>
       </c>
       <c r="E12">
-        <v>0.9743502869619333</v>
+        <v>1.03910470513312</v>
       </c>
       <c r="F12">
-        <v>0.9749345035041759</v>
+        <v>1.04195808429557</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034633717629744</v>
+        <v>1.026101507635593</v>
       </c>
       <c r="J12">
-        <v>0.9999330794919095</v>
+        <v>1.019754805706268</v>
       </c>
       <c r="K12">
-        <v>1.010325666455436</v>
+        <v>1.02322884980166</v>
       </c>
       <c r="L12">
-        <v>0.9899859647252514</v>
+        <v>1.04270515712393</v>
       </c>
       <c r="M12">
-        <v>0.9905582070319559</v>
+        <v>1.045547919201015</v>
       </c>
       <c r="N12">
-        <v>1.004027022210602</v>
+        <v>1.010697604169045</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9689787667437736</v>
+        <v>1.012979758351148</v>
       </c>
       <c r="D13">
-        <v>0.9952596313180507</v>
+        <v>1.019583704343786</v>
       </c>
       <c r="E13">
-        <v>0.9746740348274888</v>
+        <v>1.039169164211611</v>
       </c>
       <c r="F13">
-        <v>0.975273238529914</v>
+        <v>1.042025575266681</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034676841478446</v>
+        <v>1.02610580815568</v>
       </c>
       <c r="J13">
-        <v>1.000058936629368</v>
+        <v>1.019779071539304</v>
       </c>
       <c r="K13">
-        <v>1.010433875033599</v>
+        <v>1.023248741458785</v>
       </c>
       <c r="L13">
-        <v>0.9902573474080174</v>
+        <v>1.042759769441063</v>
       </c>
       <c r="M13">
-        <v>0.990844322255839</v>
+        <v>1.04560558382971</v>
       </c>
       <c r="N13">
-        <v>1.004069114446927</v>
+        <v>1.01070568432093</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9697445621030151</v>
+        <v>1.013121754588029</v>
       </c>
       <c r="D14">
-        <v>0.9957680465206616</v>
+        <v>1.019681435501197</v>
       </c>
       <c r="E14">
-        <v>0.9757315453603094</v>
+        <v>1.039380397140088</v>
       </c>
       <c r="F14">
-        <v>0.9763797035011043</v>
+        <v>1.042246744231528</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034817416775431</v>
+        <v>1.026119855518713</v>
       </c>
       <c r="J14">
-        <v>1.000470053504842</v>
+        <v>1.019858570460158</v>
       </c>
       <c r="K14">
-        <v>1.01078728930657</v>
+        <v>1.023313897313511</v>
       </c>
       <c r="L14">
-        <v>0.9911437068036356</v>
+        <v>1.042938721014855</v>
       </c>
       <c r="M14">
-        <v>0.9917788222459371</v>
+        <v>1.04579453876535</v>
       </c>
       <c r="N14">
-        <v>1.004206609869019</v>
+        <v>1.010732155357593</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9702147380303675</v>
+        <v>1.013209251253274</v>
       </c>
       <c r="D15">
-        <v>0.9960802970458769</v>
+        <v>1.019741652581642</v>
       </c>
       <c r="E15">
-        <v>0.9763806302255297</v>
+        <v>1.039510566151221</v>
       </c>
       <c r="F15">
-        <v>0.9770588354192035</v>
+        <v>1.04238303655165</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034903478543397</v>
+        <v>1.026128477173702</v>
       </c>
       <c r="J15">
-        <v>1.000722395580443</v>
+        <v>1.019907544790269</v>
       </c>
       <c r="K15">
-        <v>1.011004172677264</v>
+        <v>1.023354026172947</v>
       </c>
       <c r="L15">
-        <v>0.9916876630440314</v>
+        <v>1.04304898685892</v>
       </c>
       <c r="M15">
-        <v>0.9923523395069567</v>
+        <v>1.045910969721152</v>
       </c>
       <c r="N15">
-        <v>1.004291003725902</v>
+        <v>1.010748461831354</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9729265729517526</v>
+        <v>1.013718642445773</v>
       </c>
       <c r="D16">
-        <v>0.9978826995747202</v>
+        <v>1.020092166644641</v>
       </c>
       <c r="E16">
-        <v>0.9801216153812986</v>
+        <v>1.040268534185624</v>
       </c>
       <c r="F16">
-        <v>0.980972986877693</v>
+        <v>1.043176666088556</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035396066882995</v>
+        <v>1.026178148717048</v>
       </c>
       <c r="J16">
-        <v>1.002176726010367</v>
+        <v>1.020192480215946</v>
       </c>
       <c r="K16">
-        <v>1.012253497554081</v>
+        <v>1.023587351281714</v>
       </c>
       <c r="L16">
-        <v>0.9948215371267746</v>
+        <v>1.043690902679204</v>
       </c>
       <c r="M16">
-        <v>0.9956567767068102</v>
+        <v>1.046588795211859</v>
       </c>
       <c r="N16">
-        <v>1.004777386061532</v>
+        <v>1.010843323376126</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9746063180653979</v>
+        <v>1.014038277309733</v>
       </c>
       <c r="D17">
-        <v>0.9990003266954581</v>
+        <v>1.020312055296754</v>
       </c>
       <c r="E17">
-        <v>0.9824366555918919</v>
+        <v>1.040744277474848</v>
       </c>
       <c r="F17">
-        <v>0.9833951778625709</v>
+        <v>1.043674797553845</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035697813819572</v>
+        <v>1.026208856558618</v>
       </c>
       <c r="J17">
-        <v>1.003076569801285</v>
+        <v>1.020371109541748</v>
       </c>
       <c r="K17">
-        <v>1.013025906538782</v>
+        <v>1.023733495835042</v>
       </c>
       <c r="L17">
-        <v>0.9967598050530531</v>
+        <v>1.044093666845652</v>
       </c>
       <c r="M17">
-        <v>0.9977007514429941</v>
+        <v>1.047014107450042</v>
       </c>
       <c r="N17">
-        <v>1.005078318874179</v>
+        <v>1.010902783948581</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9755786018209039</v>
+        <v>1.014224753198719</v>
       </c>
       <c r="D18">
-        <v>0.9996476468499819</v>
+        <v>1.020440319498954</v>
       </c>
       <c r="E18">
-        <v>0.9837759729397831</v>
+        <v>1.041021875365607</v>
       </c>
       <c r="F18">
-        <v>0.9847964806402241</v>
+        <v>1.043965460808001</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035871244535261</v>
+        <v>1.026226605649377</v>
       </c>
       <c r="J18">
-        <v>1.003597062174325</v>
+        <v>1.020475263570546</v>
       </c>
       <c r="K18">
-        <v>1.013472465141214</v>
+        <v>1.023818661994334</v>
       </c>
       <c r="L18">
-        <v>0.9978807567428283</v>
+        <v>1.044328631366663</v>
       </c>
       <c r="M18">
-        <v>0.9988829106718021</v>
+        <v>1.047262232101487</v>
       </c>
       <c r="N18">
-        <v>1.005252382105147</v>
+        <v>1.010937450493094</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9759088745129955</v>
+        <v>1.014288343116656</v>
       </c>
       <c r="D19">
-        <v>0.9998676000682517</v>
+        <v>1.020484055395914</v>
       </c>
       <c r="E19">
-        <v>0.9842308129888966</v>
+        <v>1.04111654689786</v>
       </c>
       <c r="F19">
-        <v>0.9852723704923696</v>
+        <v>1.044064588430744</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035929946806012</v>
+        <v>1.026232630090095</v>
       </c>
       <c r="J19">
-        <v>1.003773804773903</v>
+        <v>1.020510771028103</v>
       </c>
       <c r="K19">
-        <v>1.013624063595917</v>
+        <v>1.023847688280541</v>
       </c>
       <c r="L19">
-        <v>0.9982613714821796</v>
+        <v>1.04440875484085</v>
       </c>
       <c r="M19">
-        <v>0.9992843205482437</v>
+        <v>1.047346844232192</v>
       </c>
       <c r="N19">
-        <v>1.005311487681704</v>
+        <v>1.010949268199245</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9744268757214768</v>
+        <v>1.014003979546102</v>
       </c>
       <c r="D20">
-        <v>0.9988808911265947</v>
+        <v>1.020288462603492</v>
       </c>
       <c r="E20">
-        <v>0.9821894203683648</v>
+        <v>1.040693223882508</v>
       </c>
       <c r="F20">
-        <v>0.98313649988562</v>
+        <v>1.043621341226991</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035665706182896</v>
+        <v>1.026205578678732</v>
       </c>
       <c r="J20">
-        <v>1.002980479521654</v>
+        <v>1.020351948171696</v>
       </c>
       <c r="K20">
-        <v>1.012943447299639</v>
+        <v>1.023717823915131</v>
       </c>
       <c r="L20">
-        <v>0.9965528478566079</v>
+        <v>1.044050450035621</v>
       </c>
       <c r="M20">
-        <v>0.9974824996791803</v>
+        <v>1.046968470594326</v>
       </c>
       <c r="N20">
-        <v>1.005046183996371</v>
+        <v>1.010896406024045</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9695194006098108</v>
+        <v>1.013079938546557</v>
       </c>
       <c r="D21">
-        <v>0.9956185400312723</v>
+        <v>1.01965265575664</v>
       </c>
       <c r="E21">
-        <v>0.975420654261004</v>
+        <v>1.039318189844746</v>
       </c>
       <c r="F21">
-        <v>0.9760544206799207</v>
+        <v>1.042181610731725</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034776135924069</v>
+        <v>1.026115725875185</v>
       </c>
       <c r="J21">
-        <v>1.000349190576069</v>
+        <v>1.019835161586792</v>
       </c>
       <c r="K21">
-        <v>1.010683398693162</v>
+        <v>1.023294713830716</v>
       </c>
       <c r="L21">
-        <v>0.9908831477370221</v>
+        <v>1.042886022598189</v>
       </c>
       <c r="M21">
-        <v>0.9915041078819622</v>
+        <v>1.045738894251498</v>
       </c>
       <c r="N21">
-        <v>1.004166188098726</v>
+        <v>1.010724360964309</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9663620852180594</v>
+        <v>1.012499309925464</v>
       </c>
       <c r="D22">
-        <v>0.9935239309868141</v>
+        <v>1.019252971247789</v>
       </c>
       <c r="E22">
-        <v>0.9710574377762873</v>
+        <v>1.03845458811309</v>
       </c>
       <c r="F22">
-        <v>0.9714892160082541</v>
+        <v>1.041277392406397</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034192848750291</v>
+        <v>1.026057773578082</v>
       </c>
       <c r="J22">
-        <v>0.9986531190683752</v>
+        <v>1.019509905771843</v>
       </c>
       <c r="K22">
-        <v>1.009224781063748</v>
+        <v>1.023027996485932</v>
       </c>
       <c r="L22">
-        <v>0.9872249146752056</v>
+        <v>1.042154245416275</v>
       </c>
       <c r="M22">
-        <v>0.987647455277249</v>
+        <v>1.044966229980812</v>
       </c>
       <c r="N22">
-        <v>1.003598944515744</v>
+        <v>1.010616049191351</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9680428641763185</v>
+        <v>1.012807078341612</v>
       </c>
       <c r="D23">
-        <v>0.9946385537902606</v>
+        <v>1.019464844184859</v>
       </c>
       <c r="E23">
-        <v>0.9733810654824491</v>
+        <v>1.038912311330606</v>
       </c>
       <c r="F23">
-        <v>0.9739204137275854</v>
+        <v>1.041756641495918</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034504373670145</v>
+        <v>1.02608863323807</v>
       </c>
       <c r="J23">
-        <v>0.999556305314324</v>
+        <v>1.019682361188478</v>
       </c>
       <c r="K23">
-        <v>1.01000168190111</v>
+        <v>1.023169453588059</v>
       </c>
       <c r="L23">
-        <v>0.9891734253568394</v>
+        <v>1.042542142011998</v>
       </c>
       <c r="M23">
-        <v>0.989701577022281</v>
+        <v>1.045375794496973</v>
       </c>
       <c r="N23">
-        <v>1.003901011869571</v>
+        <v>1.010673480498789</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9745079810722653</v>
+        <v>1.014019477110968</v>
       </c>
       <c r="D24">
-        <v>0.9989348730275235</v>
+        <v>1.020299123104983</v>
       </c>
       <c r="E24">
-        <v>0.982301169250049</v>
+        <v>1.040716292478891</v>
       </c>
       <c r="F24">
-        <v>0.9832534208389861</v>
+        <v>1.043645495494909</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035680222185376</v>
+        <v>1.02620706031301</v>
       </c>
       <c r="J24">
-        <v>1.003023912067569</v>
+        <v>1.020360606485767</v>
       </c>
       <c r="K24">
-        <v>1.012980719343788</v>
+        <v>1.023724905620665</v>
       </c>
       <c r="L24">
-        <v>0.9966463925217084</v>
+        <v>1.044069977731019</v>
       </c>
       <c r="M24">
-        <v>0.9975811492591024</v>
+        <v>1.046989091778802</v>
       </c>
       <c r="N24">
-        <v>1.005060708886351</v>
+        <v>1.01089928798246</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9817187100055713</v>
+        <v>1.015427895951599</v>
       </c>
       <c r="D25">
-        <v>1.003742091669553</v>
+        <v>1.021267521291742</v>
       </c>
       <c r="E25">
-        <v>0.9922241038324439</v>
+        <v>1.042813830546053</v>
       </c>
       <c r="F25">
-        <v>0.993635502590464</v>
+        <v>1.045841787298414</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036944125810315</v>
+        <v>1.026338120730847</v>
       </c>
       <c r="J25">
-        <v>1.006877373745159</v>
+        <v>1.021146200886583</v>
       </c>
       <c r="K25">
-        <v>1.016282592909038</v>
+        <v>1.024366433527624</v>
       </c>
       <c r="L25">
-        <v>1.004944341958886</v>
+        <v>1.04584447927806</v>
       </c>
       <c r="M25">
-        <v>1.006333429241797</v>
+        <v>1.048863088942891</v>
       </c>
       <c r="N25">
-        <v>1.006349290886686</v>
+        <v>1.011160703999875</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_247/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_247/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016552413468103</v>
+        <v>0.9872555759512677</v>
       </c>
       <c r="D2">
-        <v>1.022040069288516</v>
+        <v>1.007443131238885</v>
       </c>
       <c r="E2">
-        <v>1.044490185947091</v>
+        <v>0.9998318384898545</v>
       </c>
       <c r="F2">
-        <v>1.047597120381425</v>
+        <v>1.001595035305075</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026437499221819</v>
+        <v>1.037874853344372</v>
       </c>
       <c r="J2">
-        <v>1.021771571777636</v>
+        <v>1.009824269078831</v>
       </c>
       <c r="K2">
-        <v>1.024875623536912</v>
+        <v>1.018799736281967</v>
       </c>
       <c r="L2">
-        <v>1.047261089541029</v>
+        <v>1.011293516566154</v>
       </c>
       <c r="M2">
-        <v>1.050359313613245</v>
+        <v>1.013032193390217</v>
       </c>
       <c r="N2">
-        <v>1.011368696429943</v>
+        <v>1.007334502744301</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017369570045419</v>
+        <v>0.9911608539194544</v>
       </c>
       <c r="D3">
-        <v>1.022601070586336</v>
+        <v>1.010057990583428</v>
       </c>
       <c r="E3">
-        <v>1.045709343861217</v>
+        <v>1.005194907719584</v>
       </c>
       <c r="F3">
-        <v>1.048873745858206</v>
+        <v>1.007205938369277</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.026506656957223</v>
+        <v>1.038507459252892</v>
       </c>
       <c r="J3">
-        <v>1.022224925962693</v>
+        <v>1.011895418101706</v>
       </c>
       <c r="K3">
-        <v>1.025243877923041</v>
+        <v>1.020563774960495</v>
       </c>
       <c r="L3">
-        <v>1.0482904320394</v>
+        <v>1.015761747468432</v>
       </c>
       <c r="M3">
-        <v>1.051446610920002</v>
+        <v>1.017747440723051</v>
       </c>
       <c r="N3">
-        <v>1.011519414690702</v>
+        <v>1.008026763549429</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.017898622646614</v>
+        <v>0.993637469307316</v>
       </c>
       <c r="D4">
-        <v>1.022964095842561</v>
+        <v>1.011717932378078</v>
       </c>
       <c r="E4">
-        <v>1.04649914248666</v>
+        <v>1.008595881814687</v>
       </c>
       <c r="F4">
-        <v>1.04970078658907</v>
+        <v>1.010763986824627</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.026550015102095</v>
+        <v>1.038897320748979</v>
       </c>
       <c r="J4">
-        <v>1.022517938126707</v>
+        <v>1.013205341556224</v>
       </c>
       <c r="K4">
-        <v>1.025481480258419</v>
+        <v>1.021676959901166</v>
       </c>
       <c r="L4">
-        <v>1.048956842703994</v>
+        <v>1.018591657448245</v>
       </c>
       <c r="M4">
-        <v>1.052150590114621</v>
+        <v>1.020734212955446</v>
       </c>
       <c r="N4">
-        <v>1.011616797556645</v>
+        <v>1.008464499559945</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018121106419786</v>
+        <v>0.9946669789291503</v>
       </c>
       <c r="D5">
-        <v>1.023116714876444</v>
+        <v>1.012408304260047</v>
       </c>
       <c r="E5">
-        <v>1.046831395374309</v>
+        <v>1.010009773997673</v>
       </c>
       <c r="F5">
-        <v>1.050048709619265</v>
+        <v>1.012243156778699</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026567909172561</v>
+        <v>1.039056625730056</v>
       </c>
       <c r="J5">
-        <v>1.022641038573422</v>
+        <v>1.01374899730026</v>
       </c>
       <c r="K5">
-        <v>1.025581203770746</v>
+        <v>1.022138339768747</v>
       </c>
       <c r="L5">
-        <v>1.049237087947286</v>
+        <v>1.019767263942615</v>
       </c>
       <c r="M5">
-        <v>1.052446645339062</v>
+        <v>1.021975077478703</v>
       </c>
       <c r="N5">
-        <v>1.011657703008644</v>
+        <v>1.008646148177742</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018158466497756</v>
+        <v>0.9948391655860157</v>
       </c>
       <c r="D6">
-        <v>1.02314234042725</v>
+        <v>1.012523788591746</v>
       </c>
       <c r="E6">
-        <v>1.046887195112073</v>
+        <v>1.010246261594105</v>
       </c>
       <c r="F6">
-        <v>1.050107141237455</v>
+        <v>1.012490561334281</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.026570894081555</v>
+        <v>1.039083106376838</v>
       </c>
       <c r="J6">
-        <v>1.022661702853899</v>
+        <v>1.013839872672007</v>
       </c>
       <c r="K6">
-        <v>1.025597938110434</v>
+        <v>1.022215424879153</v>
       </c>
       <c r="L6">
-        <v>1.04928414743141</v>
+        <v>1.019963844046607</v>
       </c>
       <c r="M6">
-        <v>1.052496360334465</v>
+        <v>1.022182575120358</v>
       </c>
       <c r="N6">
-        <v>1.011664569192846</v>
+        <v>1.008676510358216</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.017901595211896</v>
+        <v>0.9936512709671044</v>
       </c>
       <c r="D7">
-        <v>1.022966135134882</v>
+        <v>1.011727186239328</v>
       </c>
       <c r="E7">
-        <v>1.046503581194424</v>
+        <v>1.008614835786473</v>
       </c>
       <c r="F7">
-        <v>1.049705434628789</v>
+        <v>1.010783815972462</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.026550255515426</v>
+        <v>1.038899467346019</v>
       </c>
       <c r="J7">
-        <v>1.022519583323683</v>
+        <v>1.013212633292914</v>
       </c>
       <c r="K7">
-        <v>1.025482813416578</v>
+        <v>1.021683150615615</v>
       </c>
       <c r="L7">
-        <v>1.048960587015085</v>
+        <v>1.018607420550176</v>
       </c>
       <c r="M7">
-        <v>1.052154545616016</v>
+        <v>1.020750850704947</v>
       </c>
       <c r="N7">
-        <v>1.011617344272504</v>
+        <v>1.008466936005726</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016828513007022</v>
+        <v>0.9885860557329504</v>
       </c>
       <c r="D8">
-        <v>1.022229657253031</v>
+        <v>1.008333597081371</v>
       </c>
       <c r="E8">
-        <v>1.044902015679088</v>
+        <v>1.001659100816459</v>
       </c>
       <c r="F8">
-        <v>1.048028359780086</v>
+        <v>1.003506755145107</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026461159193722</v>
+        <v>1.038092721685586</v>
       </c>
       <c r="J8">
-        <v>1.021924854470386</v>
+        <v>1.010530613844825</v>
       </c>
       <c r="K8">
-        <v>1.025000217608229</v>
+        <v>1.019401855472014</v>
       </c>
       <c r="L8">
-        <v>1.047608887094199</v>
+        <v>1.0128166453311</v>
       </c>
       <c r="M8">
-        <v>1.050726683157676</v>
+        <v>1.014639433812383</v>
       </c>
       <c r="N8">
-        <v>1.011419661562277</v>
+        <v>1.007570609599893</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.014939937594953</v>
+        <v>0.979255921233383</v>
       </c>
       <c r="D9">
-        <v>1.020932109775352</v>
+        <v>1.00209850167306</v>
       </c>
       <c r="E9">
-        <v>1.042086876261905</v>
+        <v>0.9888374017799021</v>
       </c>
       <c r="F9">
-        <v>1.045080598977255</v>
+        <v>0.9900921231085492</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026293527180697</v>
+        <v>1.036518608232392</v>
       </c>
       <c r="J9">
-        <v>1.020874313726644</v>
+        <v>1.005563089758339</v>
       </c>
       <c r="K9">
-        <v>1.024144637346443</v>
+        <v>1.015157623657132</v>
       </c>
       <c r="L9">
-        <v>1.045229724885357</v>
+        <v>1.00211421837347</v>
       </c>
       <c r="M9">
-        <v>1.048213836459047</v>
+        <v>1.003348020459281</v>
       </c>
       <c r="N9">
-        <v>1.011070246775643</v>
+        <v>1.005909828048363</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.013682525836241</v>
+        <v>0.9727357188500385</v>
       </c>
       <c r="D10">
-        <v>1.020067318076599</v>
+        <v>0.9977557709250179</v>
       </c>
       <c r="E10">
-        <v>1.040214784779581</v>
+        <v>0.9798584776200885</v>
       </c>
       <c r="F10">
-        <v>1.043120387512676</v>
+        <v>0.9806976693420365</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026174656491114</v>
+        <v>1.035361615821768</v>
       </c>
       <c r="J10">
-        <v>1.020172288337255</v>
+        <v>1.00207443608997</v>
       </c>
       <c r="K10">
-        <v>1.023570825079615</v>
+        <v>1.012165664191188</v>
       </c>
       <c r="L10">
-        <v>1.043645391706557</v>
+        <v>0.9946011719424808</v>
       </c>
       <c r="M10">
-        <v>1.046540737204421</v>
+        <v>0.9954244039024636</v>
       </c>
       <c r="N10">
-        <v>1.010836601628473</v>
+        <v>1.004743176992988</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.013138455780668</v>
+        <v>0.9698344081994495</v>
       </c>
       <c r="D11">
-        <v>1.019692929849544</v>
+        <v>0.995827708825067</v>
       </c>
       <c r="E11">
-        <v>1.039405242991294</v>
+        <v>0.9758555905989361</v>
       </c>
       <c r="F11">
-        <v>1.042272758839445</v>
+        <v>0.9765094909986541</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026121503220424</v>
+        <v>1.034833876994691</v>
       </c>
       <c r="J11">
-        <v>1.01986791929926</v>
+        <v>1.00051827789422</v>
       </c>
       <c r="K11">
-        <v>1.023321558184087</v>
+        <v>1.01082873972656</v>
       </c>
       <c r="L11">
-        <v>1.042959768479899</v>
+        <v>0.9912476657827177</v>
       </c>
       <c r="M11">
-        <v>1.045816762947645</v>
+        <v>0.9918884298077301</v>
       </c>
       <c r="N11">
-        <v>1.010735268183661</v>
+        <v>1.004222738165357</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.01293642478953</v>
+        <v>0.9687443833300952</v>
       </c>
       <c r="D12">
-        <v>1.019553877790871</v>
+        <v>0.9951040630519085</v>
       </c>
       <c r="E12">
-        <v>1.03910470513312</v>
+        <v>0.9743502869619329</v>
       </c>
       <c r="F12">
-        <v>1.04195808429557</v>
+        <v>0.9749345035041753</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026101507635593</v>
+        <v>1.034633717629744</v>
       </c>
       <c r="J12">
-        <v>1.019754805706268</v>
+        <v>0.9999330794919099</v>
       </c>
       <c r="K12">
-        <v>1.02322884980166</v>
+        <v>1.010325666455436</v>
       </c>
       <c r="L12">
-        <v>1.04270515712393</v>
+        <v>0.989985964725251</v>
       </c>
       <c r="M12">
-        <v>1.045547919201015</v>
+        <v>0.9905582070319553</v>
       </c>
       <c r="N12">
-        <v>1.010697604169045</v>
+        <v>1.004027022210602</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.012979758351148</v>
+        <v>0.9689787667437733</v>
       </c>
       <c r="D13">
-        <v>1.019583704343786</v>
+        <v>0.9952596313180506</v>
       </c>
       <c r="E13">
-        <v>1.039169164211611</v>
+        <v>0.9746740348274897</v>
       </c>
       <c r="F13">
-        <v>1.042025575266681</v>
+        <v>0.975273238529915</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02610580815568</v>
+        <v>1.034676841478446</v>
       </c>
       <c r="J13">
-        <v>1.019779071539304</v>
+        <v>1.000058936629368</v>
       </c>
       <c r="K13">
-        <v>1.023248741458785</v>
+        <v>1.010433875033599</v>
       </c>
       <c r="L13">
-        <v>1.042759769441063</v>
+        <v>0.9902573474080182</v>
       </c>
       <c r="M13">
-        <v>1.04560558382971</v>
+        <v>0.9908443222558397</v>
       </c>
       <c r="N13">
-        <v>1.01070568432093</v>
+        <v>1.004069114446927</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.013121754588029</v>
+        <v>0.9697445621030151</v>
       </c>
       <c r="D14">
-        <v>1.019681435501197</v>
+        <v>0.9957680465206615</v>
       </c>
       <c r="E14">
-        <v>1.039380397140088</v>
+        <v>0.9757315453603094</v>
       </c>
       <c r="F14">
-        <v>1.042246744231528</v>
+        <v>0.9763797035011044</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026119855518713</v>
+        <v>1.034817416775431</v>
       </c>
       <c r="J14">
-        <v>1.019858570460158</v>
+        <v>1.000470053504842</v>
       </c>
       <c r="K14">
-        <v>1.023313897313511</v>
+        <v>1.010787289306569</v>
       </c>
       <c r="L14">
-        <v>1.042938721014855</v>
+        <v>0.9911437068036357</v>
       </c>
       <c r="M14">
-        <v>1.04579453876535</v>
+        <v>0.9917788222459371</v>
       </c>
       <c r="N14">
-        <v>1.010732155357593</v>
+        <v>1.004206609869019</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.013209251253274</v>
+        <v>0.970214738030368</v>
       </c>
       <c r="D15">
-        <v>1.019741652581642</v>
+        <v>0.9960802970458773</v>
       </c>
       <c r="E15">
-        <v>1.039510566151221</v>
+        <v>0.9763806302255301</v>
       </c>
       <c r="F15">
-        <v>1.04238303655165</v>
+        <v>0.9770588354192042</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026128477173702</v>
+        <v>1.034903478543397</v>
       </c>
       <c r="J15">
-        <v>1.019907544790269</v>
+        <v>1.000722395580443</v>
       </c>
       <c r="K15">
-        <v>1.023354026172947</v>
+        <v>1.011004172677264</v>
       </c>
       <c r="L15">
-        <v>1.04304898685892</v>
+        <v>0.991687663044032</v>
       </c>
       <c r="M15">
-        <v>1.045910969721152</v>
+        <v>0.9923523395069576</v>
       </c>
       <c r="N15">
-        <v>1.010748461831354</v>
+        <v>1.004291003725902</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.013718642445773</v>
+        <v>0.9729265729517529</v>
       </c>
       <c r="D16">
-        <v>1.020092166644641</v>
+        <v>0.9978826995747205</v>
       </c>
       <c r="E16">
-        <v>1.040268534185624</v>
+        <v>0.980121615381299</v>
       </c>
       <c r="F16">
-        <v>1.043176666088556</v>
+        <v>0.9809729868776934</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026178148717048</v>
+        <v>1.035396066882996</v>
       </c>
       <c r="J16">
-        <v>1.020192480215946</v>
+        <v>1.002176726010367</v>
       </c>
       <c r="K16">
-        <v>1.023587351281714</v>
+        <v>1.012253497554081</v>
       </c>
       <c r="L16">
-        <v>1.043690902679204</v>
+        <v>0.9948215371267749</v>
       </c>
       <c r="M16">
-        <v>1.046588795211859</v>
+        <v>0.9956567767068105</v>
       </c>
       <c r="N16">
-        <v>1.010843323376126</v>
+        <v>1.004777386061532</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.014038277309733</v>
+        <v>0.9746063180653982</v>
       </c>
       <c r="D17">
-        <v>1.020312055296754</v>
+        <v>0.9990003266954587</v>
       </c>
       <c r="E17">
-        <v>1.040744277474848</v>
+        <v>0.9824366555918927</v>
       </c>
       <c r="F17">
-        <v>1.043674797553845</v>
+        <v>0.9833951778625718</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026208856558618</v>
+        <v>1.035697813819572</v>
       </c>
       <c r="J17">
-        <v>1.020371109541748</v>
+        <v>1.003076569801286</v>
       </c>
       <c r="K17">
-        <v>1.023733495835042</v>
+        <v>1.013025906538782</v>
       </c>
       <c r="L17">
-        <v>1.044093666845652</v>
+        <v>0.9967598050530539</v>
       </c>
       <c r="M17">
-        <v>1.047014107450042</v>
+        <v>0.997700751442995</v>
       </c>
       <c r="N17">
-        <v>1.010902783948581</v>
+        <v>1.005078318874179</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.014224753198719</v>
+        <v>0.9755786018209042</v>
       </c>
       <c r="D18">
-        <v>1.020440319498954</v>
+        <v>0.9996476468499816</v>
       </c>
       <c r="E18">
-        <v>1.041021875365607</v>
+        <v>0.9837759729397834</v>
       </c>
       <c r="F18">
-        <v>1.043965460808001</v>
+        <v>0.9847964806402246</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026226605649377</v>
+        <v>1.035871244535261</v>
       </c>
       <c r="J18">
-        <v>1.020475263570546</v>
+        <v>1.003597062174325</v>
       </c>
       <c r="K18">
-        <v>1.023818661994334</v>
+        <v>1.013472465141214</v>
       </c>
       <c r="L18">
-        <v>1.044328631366663</v>
+        <v>0.9978807567428285</v>
       </c>
       <c r="M18">
-        <v>1.047262232101487</v>
+        <v>0.9988829106718025</v>
       </c>
       <c r="N18">
-        <v>1.010937450493094</v>
+        <v>1.005252382105147</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.014288343116656</v>
+        <v>0.9759088745129957</v>
       </c>
       <c r="D19">
-        <v>1.020484055395914</v>
+        <v>0.9998676000682523</v>
       </c>
       <c r="E19">
-        <v>1.04111654689786</v>
+        <v>0.984230812988897</v>
       </c>
       <c r="F19">
-        <v>1.044064588430744</v>
+        <v>0.9852723704923702</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026232630090095</v>
+        <v>1.035929946806012</v>
       </c>
       <c r="J19">
-        <v>1.020510771028103</v>
+        <v>1.003773804773904</v>
       </c>
       <c r="K19">
-        <v>1.023847688280541</v>
+        <v>1.013624063595918</v>
       </c>
       <c r="L19">
-        <v>1.04440875484085</v>
+        <v>0.9982613714821801</v>
       </c>
       <c r="M19">
-        <v>1.047346844232192</v>
+        <v>0.9992843205482443</v>
       </c>
       <c r="N19">
-        <v>1.010949268199245</v>
+        <v>1.005311487681704</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.014003979546102</v>
+        <v>0.9744268757214768</v>
       </c>
       <c r="D20">
-        <v>1.020288462603492</v>
+        <v>0.9988808911265951</v>
       </c>
       <c r="E20">
-        <v>1.040693223882508</v>
+        <v>0.982189420368365</v>
       </c>
       <c r="F20">
-        <v>1.043621341226991</v>
+        <v>0.9831364998856201</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026205578678732</v>
+        <v>1.035665706182896</v>
       </c>
       <c r="J20">
-        <v>1.020351948171696</v>
+        <v>1.002980479521654</v>
       </c>
       <c r="K20">
-        <v>1.023717823915131</v>
+        <v>1.012943447299639</v>
       </c>
       <c r="L20">
-        <v>1.044050450035621</v>
+        <v>0.9965528478566081</v>
       </c>
       <c r="M20">
-        <v>1.046968470594326</v>
+        <v>0.9974824996791805</v>
       </c>
       <c r="N20">
-        <v>1.010896406024045</v>
+        <v>1.005046183996371</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.013079938546557</v>
+        <v>0.9695194006098103</v>
       </c>
       <c r="D21">
-        <v>1.01965265575664</v>
+        <v>0.9956185400312719</v>
       </c>
       <c r="E21">
-        <v>1.039318189844746</v>
+        <v>0.9754206542610042</v>
       </c>
       <c r="F21">
-        <v>1.042181610731725</v>
+        <v>0.9760544206799211</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026115725875185</v>
+        <v>1.034776135924069</v>
       </c>
       <c r="J21">
-        <v>1.019835161586792</v>
+        <v>1.000349190576069</v>
       </c>
       <c r="K21">
-        <v>1.023294713830716</v>
+        <v>1.010683398693161</v>
       </c>
       <c r="L21">
-        <v>1.042886022598189</v>
+        <v>0.9908831477370225</v>
       </c>
       <c r="M21">
-        <v>1.045738894251498</v>
+        <v>0.9915041078819625</v>
       </c>
       <c r="N21">
-        <v>1.010724360964309</v>
+        <v>1.004166188098726</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.012499309925464</v>
+        <v>0.9663620852180592</v>
       </c>
       <c r="D22">
-        <v>1.019252971247789</v>
+        <v>0.993523930986814</v>
       </c>
       <c r="E22">
-        <v>1.03845458811309</v>
+        <v>0.9710574377762868</v>
       </c>
       <c r="F22">
-        <v>1.041277392406397</v>
+        <v>0.9714892160082538</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026057773578082</v>
+        <v>1.034192848750291</v>
       </c>
       <c r="J22">
-        <v>1.019509905771843</v>
+        <v>0.9986531190683751</v>
       </c>
       <c r="K22">
-        <v>1.023027996485932</v>
+        <v>1.009224781063748</v>
       </c>
       <c r="L22">
-        <v>1.042154245416275</v>
+        <v>0.9872249146752052</v>
       </c>
       <c r="M22">
-        <v>1.044966229980812</v>
+        <v>0.9876474552772486</v>
       </c>
       <c r="N22">
-        <v>1.010616049191351</v>
+        <v>1.003598944515744</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.012807078341612</v>
+        <v>0.9680428641763182</v>
       </c>
       <c r="D23">
-        <v>1.019464844184859</v>
+        <v>0.9946385537902603</v>
       </c>
       <c r="E23">
-        <v>1.038912311330606</v>
+        <v>0.9733810654824493</v>
       </c>
       <c r="F23">
-        <v>1.041756641495918</v>
+        <v>0.9739204137275854</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02608863323807</v>
+        <v>1.034504373670145</v>
       </c>
       <c r="J23">
-        <v>1.019682361188478</v>
+        <v>0.9995563053143237</v>
       </c>
       <c r="K23">
-        <v>1.023169453588059</v>
+        <v>1.010001681901109</v>
       </c>
       <c r="L23">
-        <v>1.042542142011998</v>
+        <v>0.9891734253568395</v>
       </c>
       <c r="M23">
-        <v>1.045375794496973</v>
+        <v>0.989701577022281</v>
       </c>
       <c r="N23">
-        <v>1.010673480498789</v>
+        <v>1.003901011869571</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.014019477110968</v>
+        <v>0.974507981072266</v>
       </c>
       <c r="D24">
-        <v>1.020299123104983</v>
+        <v>0.9989348730275247</v>
       </c>
       <c r="E24">
-        <v>1.040716292478891</v>
+        <v>0.9823011692500486</v>
       </c>
       <c r="F24">
-        <v>1.043645495494909</v>
+        <v>0.9832534208389863</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02620706031301</v>
+        <v>1.035680222185377</v>
       </c>
       <c r="J24">
-        <v>1.020360606485767</v>
+        <v>1.00302391206757</v>
       </c>
       <c r="K24">
-        <v>1.023724905620665</v>
+        <v>1.012980719343789</v>
       </c>
       <c r="L24">
-        <v>1.044069977731019</v>
+        <v>0.9966463925217082</v>
       </c>
       <c r="M24">
-        <v>1.046989091778802</v>
+        <v>0.9975811492591025</v>
       </c>
       <c r="N24">
-        <v>1.01089928798246</v>
+        <v>1.005060708886352</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.015427895951599</v>
+        <v>0.9817187100055712</v>
       </c>
       <c r="D25">
-        <v>1.021267521291742</v>
+        <v>1.003742091669553</v>
       </c>
       <c r="E25">
-        <v>1.042813830546053</v>
+        <v>0.9922241038324439</v>
       </c>
       <c r="F25">
-        <v>1.045841787298414</v>
+        <v>0.9936355025904641</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026338120730847</v>
+        <v>1.036944125810315</v>
       </c>
       <c r="J25">
-        <v>1.021146200886583</v>
+        <v>1.006877373745158</v>
       </c>
       <c r="K25">
-        <v>1.024366433527624</v>
+        <v>1.016282592909038</v>
       </c>
       <c r="L25">
-        <v>1.04584447927806</v>
+        <v>1.004944341958886</v>
       </c>
       <c r="M25">
-        <v>1.048863088942891</v>
+        <v>1.006333429241797</v>
       </c>
       <c r="N25">
-        <v>1.011160703999875</v>
+        <v>1.006349290886686</v>
       </c>
     </row>
   </sheetData>
